--- a/gym_pybullet_drones/examples/maze_urdf_test/self_made_maps/maps/map_26_INIT_Positions.xlsx
+++ b/gym_pybullet_drones/examples/maze_urdf_test/self_made_maps/maps/map_26_INIT_Positions.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">Index 1</t>
+    <t xml:space="preserve">Index 2</t>
   </si>
   <si>
     <t xml:space="preserve">Startpunkte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index 1</t>
   </si>
   <si>
     <t xml:space="preserve">Index 2 </t>
@@ -49,6 +55,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -69,12 +76,14 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -131,7 +140,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -149,10 +158,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,12 +249,12 @@
   <dimension ref="A1:BR62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BQ3" activeCellId="0" sqref="BQ3:BR12"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="2" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="8.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="8.48"/>
@@ -451,16 +456,16 @@
         <v>2</v>
       </c>
       <c r="BO2" s="0" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BQ2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BR2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,10 +761,6 @@
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
       <c r="BJ7" s="0" t="n">
         <v>1</v>
       </c>
@@ -788,10 +789,6 @@
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
       <c r="BJ8" s="0" t="n">
         <v>1</v>
       </c>
@@ -820,16 +817,12 @@
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" s="6" t="n">
+      <c r="J9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
       <c r="AZ9" s="0" t="n">
         <v>1</v>
       </c>
@@ -867,10 +860,6 @@
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
       <c r="AY10" s="0" t="n">
         <v>1</v>
       </c>
@@ -914,10 +903,6 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
       <c r="AX11" s="0" t="n">
         <v>1</v>
       </c>
@@ -1164,7 +1149,7 @@
       <c r="AI15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AQ15" s="6" t="n">
+      <c r="AQ15" s="5" t="n">
         <v>4</v>
       </c>
       <c r="AZ15" s="0" t="n">
@@ -1376,10 +1361,6 @@
       <c r="AG19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
       <c r="BJ19" s="0" t="n">
         <v>1</v>
       </c>
@@ -1397,10 +1378,6 @@
       <c r="AF20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
       <c r="BJ20" s="0" t="n">
         <v>1</v>
       </c>
@@ -1418,10 +1395,6 @@
       <c r="AF21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
       <c r="BJ21" s="0" t="n">
         <v>1</v>
       </c>
@@ -1439,10 +1412,6 @@
       <c r="AF22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
       <c r="BJ22" s="0" t="n">
         <v>1</v>
       </c>
@@ -1477,7 +1446,7 @@
       <c r="AF24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="BC24" s="6" t="n">
+      <c r="BC24" s="5" t="n">
         <v>5</v>
       </c>
       <c r="BJ24" s="0" t="n">
@@ -1494,7 +1463,7 @@
       <c r="O25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W25" s="6" t="n">
+      <c r="W25" s="5" t="n">
         <v>3</v>
       </c>
       <c r="AF25" s="0" t="n">
@@ -1552,8 +1521,7 @@
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="7" t="n">
+      <c r="I27" s="6" t="n">
         <v>10</v>
       </c>
       <c r="O27" s="0" t="n">
@@ -2233,12 +2201,6 @@
       <c r="C43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
       <c r="AQ43" s="0" t="n">
         <v>1</v>
       </c>
@@ -2274,13 +2236,7 @@
       <c r="R44" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="6" t="n">
+      <c r="AI44" s="5" t="n">
         <v>7</v>
       </c>
       <c r="AR44" s="0" t="n">
@@ -2318,16 +2274,6 @@
       <c r="S45" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="BB45" s="5"/>
-      <c r="BC45" s="5"/>
-      <c r="BD45" s="5"/>
-      <c r="BE45" s="5"/>
       <c r="BJ45" s="0" t="n">
         <v>1</v>
       </c>
@@ -2360,16 +2306,6 @@
       <c r="T46" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="BB46" s="5"/>
-      <c r="BC46" s="5"/>
-      <c r="BD46" s="5"/>
-      <c r="BE46" s="5"/>
       <c r="BJ46" s="0" t="n">
         <v>1</v>
       </c>
@@ -2402,16 +2338,6 @@
       <c r="T47" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="BB47" s="5"/>
-      <c r="BC47" s="5"/>
-      <c r="BD47" s="5"/>
-      <c r="BE47" s="5"/>
       <c r="BJ47" s="0" t="n">
         <v>1</v>
       </c>
@@ -2444,12 +2370,6 @@
       <c r="T48" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
       <c r="BJ48" s="0" t="n">
         <v>1</v>
       </c>
@@ -2496,12 +2416,6 @@
       <c r="R50" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AP50" s="5"/>
-      <c r="AQ50" s="5"/>
-      <c r="AR50" s="5"/>
-      <c r="AS50" s="5"/>
-      <c r="AT50" s="5"/>
-      <c r="AU50" s="5"/>
       <c r="BJ50" s="0" t="n">
         <v>1</v>
       </c>
@@ -2522,12 +2436,6 @@
       <c r="AI51" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AP51" s="5"/>
-      <c r="AQ51" s="5"/>
-      <c r="AR51" s="5"/>
-      <c r="AS51" s="5"/>
-      <c r="AT51" s="5"/>
-      <c r="AU51" s="5"/>
       <c r="BJ51" s="0" t="n">
         <v>1</v>
       </c>
@@ -2554,12 +2462,6 @@
       <c r="AJ52" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AP52" s="5"/>
-      <c r="AQ52" s="5"/>
-      <c r="AR52" s="5"/>
-      <c r="AS52" s="5"/>
-      <c r="AT52" s="5"/>
-      <c r="AU52" s="5"/>
       <c r="BJ52" s="0" t="n">
         <v>1</v>
       </c>
@@ -2592,13 +2494,7 @@
       <c r="AK53" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
-      <c r="AS53" s="5"/>
-      <c r="AT53" s="5"/>
-      <c r="AU53" s="5"/>
-      <c r="AZ53" s="6" t="n">
+      <c r="AZ53" s="5" t="n">
         <v>6</v>
       </c>
       <c r="BJ53" s="0" t="n">
@@ -2644,7 +2540,7 @@
       <c r="C55" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L55" s="6" t="n">
+      <c r="L55" s="5" t="n">
         <v>9</v>
       </c>
       <c r="AE55" s="0" t="n">
@@ -2679,7 +2575,7 @@
       <c r="C56" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W56" s="6" t="n">
+      <c r="W56" s="5" t="n">
         <v>8</v>
       </c>
       <c r="AF56" s="0" t="n">

--- a/gym_pybullet_drones/examples/maze_urdf_test/self_made_maps/maps/map_26_INIT_Positions.xlsx
+++ b/gym_pybullet_drones/examples/maze_urdf_test/self_made_maps/maps/map_26_INIT_Positions.xlsx
@@ -20,18 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Index 2</t>
+    <t xml:space="preserve">Index 1</t>
   </si>
   <si>
     <t xml:space="preserve">Startpunkte</t>
   </si>
   <si>
-    <t xml:space="preserve">Index 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index 1</t>
+    <t xml:space="preserve">Index 2</t>
   </si>
   <si>
     <t xml:space="preserve">Index 2 </t>
@@ -248,11 +245,11 @@
   </sheetPr>
   <dimension ref="A1:BR62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BK1" activeCellId="0" sqref="BK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="2" style="0" width="2.54"/>
@@ -265,184 +262,184 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
         <v>59</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="AT1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="AU1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="AW1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ1" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="BK1" s="2" t="s">
         <v>0</v>
@@ -456,16 +453,16 @@
         <v>2</v>
       </c>
       <c r="BO2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BP2" s="3" t="s">
+      <c r="BQ2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="BQ2" s="0" t="s">
+      <c r="BR2" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="BR2" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,14 +653,14 @@
         <v>1</v>
       </c>
       <c r="BO3" s="0" t="n">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="BP3" s="0" t="n">
         <v>6</v>
       </c>
       <c r="BQ3" s="0" t="n">
         <f aca="false">BO3*0.05</f>
-        <v>2.6</v>
+        <v>0.35</v>
       </c>
       <c r="BR3" s="0" t="n">
         <f aca="false">BP3*0.05</f>
@@ -684,14 +681,14 @@
         <v>2</v>
       </c>
       <c r="BO4" s="0" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="BP4" s="0" t="n">
         <v>6</v>
       </c>
       <c r="BQ4" s="0" t="n">
         <f aca="false">BO4*0.05</f>
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="BR4" s="0" t="n">
         <f aca="false">BP4*0.05</f>
@@ -712,14 +709,14 @@
         <v>3</v>
       </c>
       <c r="BO5" s="0" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="BP5" s="0" t="n">
         <v>22</v>
       </c>
       <c r="BQ5" s="0" t="n">
         <f aca="false">BO5*0.05</f>
-        <v>1.95</v>
+        <v>1</v>
       </c>
       <c r="BR5" s="0" t="n">
         <f aca="false">BP5*0.05</f>
@@ -740,14 +737,14 @@
         <v>4</v>
       </c>
       <c r="BO6" s="0" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="BP6" s="0" t="n">
         <v>12</v>
       </c>
       <c r="BQ6" s="0" t="n">
         <f aca="false">BO6*0.05</f>
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="BR6" s="0" t="n">
         <f aca="false">BP6*0.05</f>
@@ -768,14 +765,14 @@
         <v>5</v>
       </c>
       <c r="BO7" s="0" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="BP7" s="0" t="n">
         <v>21</v>
       </c>
       <c r="BQ7" s="0" t="n">
         <f aca="false">BO7*0.05</f>
-        <v>0.35</v>
+        <v>2.6</v>
       </c>
       <c r="BR7" s="0" t="n">
         <f aca="false">BP7*0.05</f>
@@ -796,14 +793,14 @@
         <v>6</v>
       </c>
       <c r="BO8" s="0" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="BP8" s="0" t="n">
         <v>50</v>
       </c>
       <c r="BQ8" s="0" t="n">
         <f aca="false">BO8*0.05</f>
-        <v>0.5</v>
+        <v>2.45</v>
       </c>
       <c r="BR8" s="0" t="n">
         <f aca="false">BP8*0.05</f>
@@ -839,14 +836,14 @@
         <v>7</v>
       </c>
       <c r="BO9" s="0" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="BP9" s="0" t="n">
         <v>41</v>
       </c>
       <c r="BQ9" s="0" t="n">
         <f aca="false">BO9*0.05</f>
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="BR9" s="0" t="n">
         <f aca="false">BP9*0.05</f>
@@ -882,14 +879,14 @@
         <v>8</v>
       </c>
       <c r="BO10" s="0" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="BP10" s="0" t="n">
         <v>53</v>
       </c>
       <c r="BQ10" s="0" t="n">
         <f aca="false">BO10*0.05</f>
-        <v>1.95</v>
+        <v>1</v>
       </c>
       <c r="BR10" s="0" t="n">
         <f aca="false">BP10*0.05</f>
@@ -931,14 +928,14 @@
         <v>9</v>
       </c>
       <c r="BO11" s="0" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="BP11" s="0" t="n">
         <v>52</v>
       </c>
       <c r="BQ11" s="0" t="n">
         <f aca="false">BO11*0.05</f>
-        <v>2.5</v>
+        <v>0.45</v>
       </c>
       <c r="BR11" s="0" t="n">
         <f aca="false">BP11*0.05</f>
@@ -980,14 +977,14 @@
         <v>10</v>
       </c>
       <c r="BO12" s="0" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="BP12" s="0" t="n">
         <v>24</v>
       </c>
       <c r="BQ12" s="0" t="n">
         <f aca="false">BO12*0.05</f>
-        <v>2.65</v>
+        <v>0.3</v>
       </c>
       <c r="BR12" s="0" t="n">
         <f aca="false">BP12*0.05</f>
